--- a/DUOL.xlsx
+++ b/DUOL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FE8C80E-1FEB-41CD-8B25-F6436271173B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A2631D8-5A07-4F3D-B418-6B97B07F6546}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5970" yWindow="1140" windowWidth="22260" windowHeight="14145" activeTab="1" xr2:uid="{EF02A600-2A00-48A7-8EA3-BCA9096BA294}"/>
+    <workbookView xWindow="6045" yWindow="780" windowWidth="17745" windowHeight="14595" activeTab="1" xr2:uid="{EF02A600-2A00-48A7-8EA3-BCA9096BA294}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="47">
   <si>
     <t>DUOL</t>
   </si>
@@ -184,7 +184,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -193,12 +193,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -221,15 +226,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -669,46 +676,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBD8ADA9-D7E1-41F5-A7B4-36588FBDA735}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="8"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="4">
         <v>293</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="8" t="s">
         <v>2</v>
       </c>
       <c r="G3" s="1">
         <v>44.9</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+      <c r="H3" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="8" t="s">
         <v>3</v>
       </c>
       <c r="G4" s="1">
@@ -716,25 +729,31 @@
         <v>13155.699999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F5" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F5" s="8" t="s">
         <v>4</v>
       </c>
       <c r="G5" s="1">
         <f>785.8+91.85</f>
         <v>877.65</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F6" t="s">
+      <c r="H5" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F6" s="8" t="s">
         <v>5</v>
       </c>
       <c r="G6" s="1">
         <v>54.6</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F7" t="s">
+      <c r="H6" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F7" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G7" s="1">
@@ -742,8 +761,8 @@
         <v>12332.65</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G8" s="8">
         <f>G2/Sheet2!I15</f>
         <v>143.63215529571025</v>
       </c>
@@ -761,16 +780,16 @@
       <pane xSplit="1" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q18" sqref="Q18"/>
+      <selection pane="bottomRight" activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="25.140625" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:67" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>28</v>
       </c>
@@ -814,44 +833,44 @@
         <v>2029</v>
       </c>
     </row>
-    <row r="2" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:67" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3">
         <v>531.10900000000004</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I2" s="3">
         <v>748.024</v>
       </c>
-      <c r="J2" s="4">
+      <c r="J2" s="3">
         <f>I2*1.31</f>
         <v>979.91144000000008</v>
       </c>
-      <c r="K2" s="4">
+      <c r="K2" s="3">
         <f>J2*1.2</f>
         <v>1175.893728</v>
       </c>
-      <c r="L2" s="4">
+      <c r="L2" s="3">
         <f t="shared" ref="L2:N2" si="1">K2*1.2</f>
         <v>1411.0724736</v>
       </c>
-      <c r="M2" s="4">
+      <c r="M2" s="3">
         <f t="shared" si="1"/>
         <v>1693.2869683199999</v>
       </c>
-      <c r="N2" s="4">
+      <c r="N2" s="3">
         <f t="shared" si="1"/>
         <v>2031.9443619839999</v>
       </c>
     </row>
-    <row r="3" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -882,7 +901,7 @@
         <v>426.70831601663991</v>
       </c>
     </row>
-    <row r="4" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
@@ -915,7 +934,7 @@
         <v>1605.23604596736</v>
       </c>
     </row>
-    <row r="5" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
@@ -946,7 +965,7 @@
         <v>639.17268479999996</v>
       </c>
     </row>
-    <row r="6" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>21</v>
       </c>
@@ -977,7 +996,7 @@
         <v>245.81934950399994</v>
       </c>
     </row>
-    <row r="7" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>22</v>
       </c>
@@ -1008,7 +1027,7 @@
         <v>423.7391646719999</v>
       </c>
     </row>
-    <row r="8" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
@@ -1041,7 +1060,7 @@
         <v>1308.7311989759996</v>
       </c>
     </row>
-    <row r="9" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>23</v>
       </c>
@@ -1074,7 +1093,7 @@
         <v>296.50484699136041</v>
       </c>
     </row>
-    <row r="10" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>25</v>
       </c>
@@ -1105,7 +1124,7 @@
         <v>96.459649142226539</v>
       </c>
     </row>
-    <row r="11" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>24</v>
       </c>
@@ -1138,7 +1157,7 @@
         <v>392.96449613358698</v>
       </c>
     </row>
-    <row r="12" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>26</v>
       </c>
@@ -1169,252 +1188,252 @@
         <v>62.874319381373915</v>
       </c>
     </row>
-    <row r="13" spans="1:67" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+    <row r="13" spans="1:67" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="3">
         <f>H11-H12</f>
         <v>16.132000000000044</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13" s="3">
         <f>I11-I12</f>
         <v>91.593000000000075</v>
       </c>
-      <c r="J13" s="4">
+      <c r="J13" s="3">
         <f>J11-J12</f>
         <v>128.66861280000003</v>
       </c>
-      <c r="K13" s="4">
+      <c r="K13" s="3">
         <f t="shared" ref="K13:N13" si="9">K11-K12</f>
         <v>152.59088944511996</v>
       </c>
-      <c r="L13" s="4">
+      <c r="L13" s="3">
         <f t="shared" si="9"/>
         <v>228.61835965811403</v>
       </c>
-      <c r="M13" s="4">
+      <c r="M13" s="3">
         <f t="shared" si="9"/>
         <v>274.73295713387512</v>
       </c>
-      <c r="N13" s="4">
+      <c r="N13" s="3">
         <f t="shared" si="9"/>
         <v>330.09017675221304</v>
       </c>
-      <c r="O13" s="4">
+      <c r="O13" s="3">
         <f t="shared" ref="O13:AT13" si="10">N13*(1+$Q$17)</f>
         <v>333.39107851973517</v>
       </c>
-      <c r="P13" s="4">
+      <c r="P13" s="3">
         <f t="shared" si="10"/>
         <v>336.72498930493254</v>
       </c>
-      <c r="Q13" s="4">
+      <c r="Q13" s="3">
         <f t="shared" si="10"/>
         <v>340.09223919798188</v>
       </c>
-      <c r="R13" s="4">
+      <c r="R13" s="3">
         <f t="shared" si="10"/>
         <v>343.49316158996169</v>
       </c>
-      <c r="S13" s="4">
+      <c r="S13" s="3">
         <f t="shared" si="10"/>
         <v>346.92809320586133</v>
       </c>
-      <c r="T13" s="4">
+      <c r="T13" s="3">
         <f t="shared" si="10"/>
         <v>350.39737413791994</v>
       </c>
-      <c r="U13" s="4">
+      <c r="U13" s="3">
         <f t="shared" si="10"/>
         <v>353.90134787929912</v>
       </c>
-      <c r="V13" s="4">
+      <c r="V13" s="3">
         <f t="shared" si="10"/>
         <v>357.4403613580921</v>
       </c>
-      <c r="W13" s="4">
+      <c r="W13" s="3">
         <f t="shared" si="10"/>
         <v>361.014764971673</v>
       </c>
-      <c r="X13" s="4">
+      <c r="X13" s="3">
         <f t="shared" si="10"/>
         <v>364.62491262138974</v>
       </c>
-      <c r="Y13" s="4">
+      <c r="Y13" s="3">
         <f t="shared" si="10"/>
         <v>368.27116174760363</v>
       </c>
-      <c r="Z13" s="4">
+      <c r="Z13" s="3">
         <f t="shared" si="10"/>
         <v>371.95387336507969</v>
       </c>
-      <c r="AA13" s="4">
+      <c r="AA13" s="3">
         <f t="shared" si="10"/>
         <v>375.67341209873047</v>
       </c>
-      <c r="AB13" s="4">
+      <c r="AB13" s="3">
         <f t="shared" si="10"/>
         <v>379.43014621971776</v>
       </c>
-      <c r="AC13" s="4">
+      <c r="AC13" s="3">
         <f t="shared" si="10"/>
         <v>383.22444768191491</v>
       </c>
-      <c r="AD13" s="4">
+      <c r="AD13" s="3">
         <f t="shared" si="10"/>
         <v>387.05669215873405</v>
       </c>
-      <c r="AE13" s="4">
+      <c r="AE13" s="3">
         <f t="shared" si="10"/>
         <v>390.92725908032139</v>
       </c>
-      <c r="AF13" s="4">
+      <c r="AF13" s="3">
         <f t="shared" si="10"/>
         <v>394.83653167112459</v>
       </c>
-      <c r="AG13" s="4">
+      <c r="AG13" s="3">
         <f t="shared" si="10"/>
         <v>398.78489698783585</v>
       </c>
-      <c r="AH13" s="4">
+      <c r="AH13" s="3">
         <f t="shared" si="10"/>
         <v>402.77274595771422</v>
       </c>
-      <c r="AI13" s="4">
+      <c r="AI13" s="3">
         <f t="shared" si="10"/>
         <v>406.80047341729136</v>
       </c>
-      <c r="AJ13" s="4">
+      <c r="AJ13" s="3">
         <f t="shared" si="10"/>
         <v>410.86847815146427</v>
       </c>
-      <c r="AK13" s="4">
+      <c r="AK13" s="3">
         <f t="shared" si="10"/>
         <v>414.9771629329789</v>
       </c>
-      <c r="AL13" s="4">
+      <c r="AL13" s="3">
         <f t="shared" si="10"/>
         <v>419.12693456230869</v>
       </c>
-      <c r="AM13" s="4">
+      <c r="AM13" s="3">
         <f t="shared" si="10"/>
         <v>423.31820390793177</v>
       </c>
-      <c r="AN13" s="4">
+      <c r="AN13" s="3">
         <f t="shared" si="10"/>
         <v>427.55138594701111</v>
       </c>
-      <c r="AO13" s="4">
+      <c r="AO13" s="3">
         <f t="shared" si="10"/>
         <v>431.82689980648121</v>
       </c>
-      <c r="AP13" s="4">
+      <c r="AP13" s="3">
         <f t="shared" si="10"/>
         <v>436.14516880454602</v>
       </c>
-      <c r="AQ13" s="4">
+      <c r="AQ13" s="3">
         <f t="shared" si="10"/>
         <v>440.50662049259148</v>
       </c>
-      <c r="AR13" s="4">
+      <c r="AR13" s="3">
         <f t="shared" si="10"/>
         <v>444.91168669751738</v>
       </c>
-      <c r="AS13" s="4">
+      <c r="AS13" s="3">
         <f t="shared" si="10"/>
         <v>449.36080356449258</v>
       </c>
-      <c r="AT13" s="4">
+      <c r="AT13" s="3">
         <f t="shared" si="10"/>
         <v>453.8544116001375</v>
       </c>
-      <c r="AU13" s="4">
+      <c r="AU13" s="3">
         <f t="shared" ref="AU13:BO13" si="11">AT13*(1+$Q$17)</f>
         <v>458.39295571613889</v>
       </c>
-      <c r="AV13" s="4">
+      <c r="AV13" s="3">
         <f t="shared" si="11"/>
         <v>462.9768852733003</v>
       </c>
-      <c r="AW13" s="4">
+      <c r="AW13" s="3">
         <f t="shared" si="11"/>
         <v>467.60665412603328</v>
       </c>
-      <c r="AX13" s="4">
+      <c r="AX13" s="3">
         <f t="shared" si="11"/>
         <v>472.28272066729363</v>
       </c>
-      <c r="AY13" s="4">
+      <c r="AY13" s="3">
         <f t="shared" si="11"/>
         <v>477.00554787396658</v>
       </c>
-      <c r="AZ13" s="4">
+      <c r="AZ13" s="3">
         <f t="shared" si="11"/>
         <v>481.77560335270624</v>
       </c>
-      <c r="BA13" s="4">
+      <c r="BA13" s="3">
         <f t="shared" si="11"/>
         <v>486.59335938623332</v>
       </c>
-      <c r="BB13" s="4">
+      <c r="BB13" s="3">
         <f t="shared" si="11"/>
         <v>491.45929298009565</v>
       </c>
-      <c r="BC13" s="4">
+      <c r="BC13" s="3">
         <f t="shared" si="11"/>
         <v>496.37388590989661</v>
       </c>
-      <c r="BD13" s="4">
+      <c r="BD13" s="3">
         <f t="shared" si="11"/>
         <v>501.33762476899557</v>
       </c>
-      <c r="BE13" s="4">
+      <c r="BE13" s="3">
         <f t="shared" si="11"/>
         <v>506.35100101668553</v>
       </c>
-      <c r="BF13" s="4">
+      <c r="BF13" s="3">
         <f t="shared" si="11"/>
         <v>511.41451102685238</v>
       </c>
-      <c r="BG13" s="4">
+      <c r="BG13" s="3">
         <f t="shared" si="11"/>
         <v>516.52865613712095</v>
       </c>
-      <c r="BH13" s="4">
+      <c r="BH13" s="3">
         <f t="shared" si="11"/>
         <v>521.69394269849215</v>
       </c>
-      <c r="BI13" s="4">
+      <c r="BI13" s="3">
         <f t="shared" si="11"/>
         <v>526.91088212547709</v>
       </c>
-      <c r="BJ13" s="4">
+      <c r="BJ13" s="3">
         <f t="shared" si="11"/>
         <v>532.17999094673189</v>
       </c>
-      <c r="BK13" s="4">
+      <c r="BK13" s="3">
         <f t="shared" si="11"/>
         <v>537.50179085619925</v>
       </c>
-      <c r="BL13" s="4">
+      <c r="BL13" s="3">
         <f t="shared" si="11"/>
         <v>542.87680876476122</v>
       </c>
-      <c r="BM13" s="4">
+      <c r="BM13" s="3">
         <f t="shared" si="11"/>
         <v>548.30557685240888</v>
       </c>
-      <c r="BN13" s="4">
+      <c r="BN13" s="3">
         <f t="shared" si="11"/>
         <v>553.78863262093296</v>
       </c>
-      <c r="BO13" s="4">
+      <c r="BO13" s="3">
         <f t="shared" si="11"/>
         <v>559.32651894714229</v>
       </c>
     </row>
-    <row r="14" spans="1:67" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:67" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
@@ -1437,7 +1456,7 @@
         <v>44.9</v>
       </c>
     </row>
-    <row r="15" spans="1:67" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:67" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>43</v>
       </c>
@@ -1448,80 +1467,80 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
-      <c r="I15" s="7">
+      <c r="I15" s="4">
         <f>I13/I14</f>
         <v>2.0399331848552356</v>
       </c>
-      <c r="J15" s="7">
+      <c r="J15" s="4">
         <f t="shared" ref="J15:N15" si="12">J13/J14</f>
         <v>2.8656706636971054</v>
       </c>
-      <c r="K15" s="7">
+      <c r="K15" s="4">
         <f t="shared" si="12"/>
         <v>3.398460789423607</v>
       </c>
-      <c r="L15" s="7">
+      <c r="L15" s="4">
         <f t="shared" si="12"/>
         <v>5.091722932251983</v>
       </c>
-      <c r="M15" s="7">
+      <c r="M15" s="4">
         <f t="shared" si="12"/>
         <v>6.1187741009771743</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N15" s="4">
         <f t="shared" si="12"/>
         <v>7.3516743151940549</v>
       </c>
     </row>
-    <row r="16" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:67" x14ac:dyDescent="0.2">
       <c r="P16" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="Q16" s="3">
+      <c r="Q16" s="7">
         <v>0.06</v>
       </c>
     </row>
-    <row r="17" spans="1:142" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:142" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="J17" s="3">
+      <c r="J17" s="5">
         <f>J2/I2-1</f>
         <v>0.31000000000000005</v>
       </c>
-      <c r="K17" s="3">
+      <c r="K17" s="5">
         <f t="shared" ref="K17:N17" si="13">K2/J2-1</f>
         <v>0.19999999999999996</v>
       </c>
-      <c r="L17" s="3">
+      <c r="L17" s="5">
         <f t="shared" si="13"/>
         <v>0.19999999999999996</v>
       </c>
-      <c r="M17" s="3">
+      <c r="M17" s="5">
         <f t="shared" si="13"/>
         <v>0.19999999999999996</v>
       </c>
-      <c r="N17" s="3">
+      <c r="N17" s="5">
         <f t="shared" si="13"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="P17" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="Q17" s="7">
         <v>0.01</v>
       </c>
     </row>
-    <row r="18" spans="1:142" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+    <row r="18" spans="1:142" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
       <c r="H18" s="6">
         <f>H4/H2</f>
         <v>0.7324372209847696</v>
@@ -1548,11 +1567,11 @@
       <c r="P18" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="Q18" s="5">
+      <c r="Q18" s="7">
         <v>0.1</v>
       </c>
     </row>
-    <row r="19" spans="1:142" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:142" x14ac:dyDescent="0.2">
       <c r="P19" s="1" t="s">
         <v>36</v>
       </c>
@@ -1561,82 +1580,82 @@
         <v>9803.7711351818416</v>
       </c>
     </row>
-    <row r="20" spans="1:142" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:142" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H20" s="3">
+      <c r="H20" s="5">
         <f>H12/H11</f>
         <v>9.5334230596679892E-2</v>
       </c>
-      <c r="I20" s="3">
+      <c r="I20" s="5">
         <f>I12/I11</f>
         <v>0.13011311293248354</v>
       </c>
-      <c r="J20" s="3">
+      <c r="J20" s="5">
         <v>0.16</v>
       </c>
-      <c r="K20" s="3">
+      <c r="K20" s="5">
         <v>0.16</v>
       </c>
-      <c r="L20" s="3">
+      <c r="L20" s="5">
         <v>0.16</v>
       </c>
-      <c r="M20" s="3">
+      <c r="M20" s="5">
         <v>0.16</v>
       </c>
-      <c r="N20" s="3">
+      <c r="N20" s="5">
         <v>0.16</v>
       </c>
       <c r="P20" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="Q20" s="1">
+      <c r="Q20" s="4">
         <f>Q19/Sheet1!G3</f>
         <v>218.34679588378268</v>
       </c>
     </row>
-    <row r="21" spans="1:142" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:142" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="5">
         <f t="shared" ref="H21:N21" si="14">H13/H2</f>
         <v>3.0374179311591486E-2</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="5">
         <f t="shared" si="14"/>
         <v>0.12244660599125172</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="5">
         <f t="shared" si="14"/>
         <v>0.13130636866531534</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="5">
         <f t="shared" si="14"/>
         <v>0.12976588429011499</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="5">
         <f t="shared" si="14"/>
         <v>0.16201744696702305</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="5">
         <f t="shared" si="14"/>
         <v>0.16224831483020996</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N21" s="5">
         <f t="shared" si="14"/>
         <v>0.16245040116645293</v>
       </c>
       <c r="P21" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="5">
         <f>Q20/Sheet1!G2-1</f>
         <v>-0.25478909254681681</v>
       </c>
     </row>
-    <row r="23" spans="1:142" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:142" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>44</v>
       </c>
@@ -1670,7 +1689,7 @@
         <v>775.5720814079998</v>
       </c>
     </row>
-    <row r="24" spans="1:142" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:142" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>45</v>
       </c>
@@ -1704,590 +1723,590 @@
         <v>57.425034239999981</v>
       </c>
     </row>
-    <row r="25" spans="1:142" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
+    <row r="25" spans="1:142" ht="15" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G25" s="4">
+      <c r="G25" s="3">
         <f>G23-G24</f>
         <v>43.531999999999996</v>
       </c>
-      <c r="H25" s="4">
+      <c r="H25" s="3">
         <f>H23-H24</f>
         <v>139.93</v>
       </c>
-      <c r="I25" s="4">
+      <c r="I25" s="3">
         <f>I23-I24</f>
         <v>264.37299999999999</v>
       </c>
-      <c r="J25" s="4">
+      <c r="J25" s="3">
         <f>J13*2.89</f>
         <v>371.85229099200012</v>
       </c>
-      <c r="K25" s="4">
+      <c r="K25" s="3">
         <f t="shared" ref="K25:N25" si="17">K13*2.89</f>
         <v>440.98767049639667</v>
       </c>
-      <c r="L25" s="4">
+      <c r="L25" s="3">
         <f t="shared" si="17"/>
         <v>660.70705941194956</v>
       </c>
-      <c r="M25" s="4">
+      <c r="M25" s="3">
         <f t="shared" si="17"/>
         <v>793.97824611689907</v>
       </c>
-      <c r="N25" s="4">
+      <c r="N25" s="3">
         <f t="shared" si="17"/>
         <v>953.96061081389576</v>
       </c>
-      <c r="O25" s="4">
+      <c r="O25" s="3">
         <f>N25*(1+$Q$17)</f>
         <v>963.50021692203472</v>
       </c>
-      <c r="P25" s="4">
+      <c r="P25" s="3">
         <f t="shared" ref="P25:CA25" si="18">O25*(1+$Q$17)</f>
         <v>973.13521909125507</v>
       </c>
-      <c r="Q25" s="4">
+      <c r="Q25" s="3">
         <f t="shared" si="18"/>
         <v>982.86657128216757</v>
       </c>
-      <c r="R25" s="4">
+      <c r="R25" s="3">
         <f t="shared" si="18"/>
         <v>992.69523699498927</v>
       </c>
-      <c r="S25" s="4">
+      <c r="S25" s="3">
         <f t="shared" si="18"/>
         <v>1002.6221893649391</v>
       </c>
-      <c r="T25" s="4">
+      <c r="T25" s="3">
         <f t="shared" si="18"/>
         <v>1012.6484112585886</v>
       </c>
-      <c r="U25" s="4">
+      <c r="U25" s="3">
         <f t="shared" si="18"/>
         <v>1022.7748953711745</v>
       </c>
-      <c r="V25" s="4">
+      <c r="V25" s="3">
         <f t="shared" si="18"/>
         <v>1033.0026443248862</v>
       </c>
-      <c r="W25" s="4">
+      <c r="W25" s="3">
         <f t="shared" si="18"/>
         <v>1043.3326707681351</v>
       </c>
-      <c r="X25" s="4">
+      <c r="X25" s="3">
         <f t="shared" si="18"/>
         <v>1053.7659974758164</v>
       </c>
-      <c r="Y25" s="4">
+      <c r="Y25" s="3">
         <f t="shared" si="18"/>
         <v>1064.3036574505745</v>
       </c>
-      <c r="Z25" s="4">
+      <c r="Z25" s="3">
         <f t="shared" si="18"/>
         <v>1074.9466940250802</v>
       </c>
-      <c r="AA25" s="4">
+      <c r="AA25" s="3">
         <f t="shared" si="18"/>
         <v>1085.696160965331</v>
       </c>
-      <c r="AB25" s="4">
+      <c r="AB25" s="3">
         <f t="shared" si="18"/>
         <v>1096.5531225749844</v>
       </c>
-      <c r="AC25" s="4">
+      <c r="AC25" s="3">
         <f t="shared" si="18"/>
         <v>1107.5186538007342</v>
       </c>
-      <c r="AD25" s="4">
+      <c r="AD25" s="3">
         <f t="shared" si="18"/>
         <v>1118.5938403387415</v>
       </c>
-      <c r="AE25" s="4">
+      <c r="AE25" s="3">
         <f t="shared" si="18"/>
         <v>1129.7797787421289</v>
       </c>
-      <c r="AF25" s="4">
+      <c r="AF25" s="3">
         <f t="shared" si="18"/>
         <v>1141.0775765295502</v>
       </c>
-      <c r="AG25" s="4">
+      <c r="AG25" s="3">
         <f t="shared" si="18"/>
         <v>1152.4883522948458</v>
       </c>
-      <c r="AH25" s="4">
+      <c r="AH25" s="3">
         <f t="shared" si="18"/>
         <v>1164.0132358177941</v>
       </c>
-      <c r="AI25" s="4">
+      <c r="AI25" s="3">
         <f t="shared" si="18"/>
         <v>1175.653368175972</v>
       </c>
-      <c r="AJ25" s="4">
+      <c r="AJ25" s="3">
         <f t="shared" si="18"/>
         <v>1187.4099018577317</v>
       </c>
-      <c r="AK25" s="4">
+      <c r="AK25" s="3">
         <f t="shared" si="18"/>
         <v>1199.2840008763089</v>
       </c>
-      <c r="AL25" s="4">
+      <c r="AL25" s="3">
         <f t="shared" si="18"/>
         <v>1211.276840885072</v>
       </c>
-      <c r="AM25" s="4">
+      <c r="AM25" s="3">
         <f t="shared" si="18"/>
         <v>1223.3896092939228</v>
       </c>
-      <c r="AN25" s="4">
+      <c r="AN25" s="3">
         <f t="shared" si="18"/>
         <v>1235.623505386862</v>
       </c>
-      <c r="AO25" s="4">
+      <c r="AO25" s="3">
         <f t="shared" si="18"/>
         <v>1247.9797404407307</v>
       </c>
-      <c r="AP25" s="4">
+      <c r="AP25" s="3">
         <f t="shared" si="18"/>
         <v>1260.4595378451379</v>
       </c>
-      <c r="AQ25" s="4">
+      <c r="AQ25" s="3">
         <f t="shared" si="18"/>
         <v>1273.0641332235894</v>
       </c>
-      <c r="AR25" s="4">
+      <c r="AR25" s="3">
         <f t="shared" si="18"/>
         <v>1285.7947745558251</v>
       </c>
-      <c r="AS25" s="4">
+      <c r="AS25" s="3">
         <f t="shared" si="18"/>
         <v>1298.6527223013834</v>
       </c>
-      <c r="AT25" s="4">
+      <c r="AT25" s="3">
         <f t="shared" si="18"/>
         <v>1311.6392495243972</v>
       </c>
-      <c r="AU25" s="4">
+      <c r="AU25" s="3">
         <f t="shared" si="18"/>
         <v>1324.7556420196411</v>
       </c>
-      <c r="AV25" s="4">
+      <c r="AV25" s="3">
         <f t="shared" si="18"/>
         <v>1338.0031984398374</v>
       </c>
-      <c r="AW25" s="4">
+      <c r="AW25" s="3">
         <f t="shared" si="18"/>
         <v>1351.3832304242358</v>
       </c>
-      <c r="AX25" s="4">
+      <c r="AX25" s="3">
         <f t="shared" si="18"/>
         <v>1364.8970627284782</v>
       </c>
-      <c r="AY25" s="4">
+      <c r="AY25" s="3">
         <f t="shared" si="18"/>
         <v>1378.546033355763</v>
       </c>
-      <c r="AZ25" s="4">
+      <c r="AZ25" s="3">
         <f t="shared" si="18"/>
         <v>1392.3314936893207</v>
       </c>
-      <c r="BA25" s="4">
+      <c r="BA25" s="3">
         <f t="shared" si="18"/>
         <v>1406.2548086262138</v>
       </c>
-      <c r="BB25" s="4">
+      <c r="BB25" s="3">
         <f t="shared" si="18"/>
         <v>1420.3173567124759</v>
       </c>
-      <c r="BC25" s="4">
+      <c r="BC25" s="3">
         <f t="shared" si="18"/>
         <v>1434.5205302796007</v>
       </c>
-      <c r="BD25" s="4">
+      <c r="BD25" s="3">
         <f t="shared" si="18"/>
         <v>1448.8657355823968</v>
       </c>
-      <c r="BE25" s="4">
+      <c r="BE25" s="3">
         <f t="shared" si="18"/>
         <v>1463.3543929382208</v>
       </c>
-      <c r="BF25" s="4">
+      <c r="BF25" s="3">
         <f t="shared" si="18"/>
         <v>1477.9879368676031</v>
       </c>
-      <c r="BG25" s="4">
+      <c r="BG25" s="3">
         <f t="shared" si="18"/>
         <v>1492.7678162362793</v>
       </c>
-      <c r="BH25" s="4">
+      <c r="BH25" s="3">
         <f t="shared" si="18"/>
         <v>1507.695494398642</v>
       </c>
-      <c r="BI25" s="4">
+      <c r="BI25" s="3">
         <f t="shared" si="18"/>
         <v>1522.7724493426285</v>
       </c>
-      <c r="BJ25" s="4">
+      <c r="BJ25" s="3">
         <f t="shared" si="18"/>
         <v>1538.0001738360547</v>
       </c>
-      <c r="BK25" s="4">
+      <c r="BK25" s="3">
         <f t="shared" si="18"/>
         <v>1553.3801755744153</v>
       </c>
-      <c r="BL25" s="4">
+      <c r="BL25" s="3">
         <f t="shared" si="18"/>
         <v>1568.9139773301595</v>
       </c>
-      <c r="BM25" s="4">
+      <c r="BM25" s="3">
         <f t="shared" si="18"/>
         <v>1584.603117103461</v>
       </c>
-      <c r="BN25" s="4">
+      <c r="BN25" s="3">
         <f t="shared" si="18"/>
         <v>1600.4491482744957</v>
       </c>
-      <c r="BO25" s="4">
+      <c r="BO25" s="3">
         <f t="shared" si="18"/>
         <v>1616.4536397572406</v>
       </c>
-      <c r="BP25" s="4">
+      <c r="BP25" s="3">
         <f t="shared" si="18"/>
         <v>1632.618176154813</v>
       </c>
-      <c r="BQ25" s="4">
+      <c r="BQ25" s="3">
         <f t="shared" si="18"/>
         <v>1648.9443579163612</v>
       </c>
-      <c r="BR25" s="4">
+      <c r="BR25" s="3">
         <f t="shared" si="18"/>
         <v>1665.4338014955249</v>
       </c>
-      <c r="BS25" s="4">
+      <c r="BS25" s="3">
         <f t="shared" si="18"/>
         <v>1682.0881395104802</v>
       </c>
-      <c r="BT25" s="4">
+      <c r="BT25" s="3">
         <f t="shared" si="18"/>
         <v>1698.9090209055851</v>
       </c>
-      <c r="BU25" s="4">
+      <c r="BU25" s="3">
         <f t="shared" si="18"/>
         <v>1715.8981111146409</v>
       </c>
-      <c r="BV25" s="4">
+      <c r="BV25" s="3">
         <f t="shared" si="18"/>
         <v>1733.0570922257873</v>
       </c>
-      <c r="BW25" s="4">
+      <c r="BW25" s="3">
         <f t="shared" si="18"/>
         <v>1750.3876631480452</v>
       </c>
-      <c r="BX25" s="4">
+      <c r="BX25" s="3">
         <f t="shared" si="18"/>
         <v>1767.8915397795258</v>
       </c>
-      <c r="BY25" s="4">
+      <c r="BY25" s="3">
         <f t="shared" si="18"/>
         <v>1785.570455177321</v>
       </c>
-      <c r="BZ25" s="4">
+      <c r="BZ25" s="3">
         <f t="shared" si="18"/>
         <v>1803.4261597290943</v>
       </c>
-      <c r="CA25" s="4">
+      <c r="CA25" s="3">
         <f t="shared" si="18"/>
         <v>1821.4604213263851</v>
       </c>
-      <c r="CB25" s="4">
+      <c r="CB25" s="3">
         <f t="shared" ref="CB25:EL25" si="19">CA25*(1+$Q$17)</f>
         <v>1839.6750255396489</v>
       </c>
-      <c r="CC25" s="4">
+      <c r="CC25" s="3">
         <f t="shared" si="19"/>
         <v>1858.0717757950454</v>
       </c>
-      <c r="CD25" s="4">
+      <c r="CD25" s="3">
         <f t="shared" si="19"/>
         <v>1876.6524935529958</v>
       </c>
-      <c r="CE25" s="4">
+      <c r="CE25" s="3">
         <f t="shared" si="19"/>
         <v>1895.4190184885258</v>
       </c>
-      <c r="CF25" s="4">
+      <c r="CF25" s="3">
         <f t="shared" si="19"/>
         <v>1914.373208673411</v>
       </c>
-      <c r="CG25" s="4">
+      <c r="CG25" s="3">
         <f t="shared" si="19"/>
         <v>1933.5169407601452</v>
       </c>
-      <c r="CH25" s="4">
+      <c r="CH25" s="3">
         <f t="shared" si="19"/>
         <v>1952.8521101677466</v>
       </c>
-      <c r="CI25" s="4">
+      <c r="CI25" s="3">
         <f t="shared" si="19"/>
         <v>1972.3806312694239</v>
       </c>
-      <c r="CJ25" s="4">
+      <c r="CJ25" s="3">
         <f t="shared" si="19"/>
         <v>1992.1044375821182</v>
       </c>
-      <c r="CK25" s="4">
+      <c r="CK25" s="3">
         <f t="shared" si="19"/>
         <v>2012.0254819579393</v>
       </c>
-      <c r="CL25" s="4">
+      <c r="CL25" s="3">
         <f t="shared" si="19"/>
         <v>2032.1457367775188</v>
       </c>
-      <c r="CM25" s="4">
+      <c r="CM25" s="3">
         <f t="shared" si="19"/>
         <v>2052.4671941452939</v>
       </c>
-      <c r="CN25" s="4">
+      <c r="CN25" s="3">
         <f t="shared" si="19"/>
         <v>2072.991866086747</v>
       </c>
-      <c r="CO25" s="4">
+      <c r="CO25" s="3">
         <f t="shared" si="19"/>
         <v>2093.7217847476145</v>
       </c>
-      <c r="CP25" s="4">
+      <c r="CP25" s="3">
         <f t="shared" si="19"/>
         <v>2114.6590025950904</v>
       </c>
-      <c r="CQ25" s="4">
+      <c r="CQ25" s="3">
         <f t="shared" si="19"/>
         <v>2135.8055926210413</v>
       </c>
-      <c r="CR25" s="4">
+      <c r="CR25" s="3">
         <f t="shared" si="19"/>
         <v>2157.1636485472518</v>
       </c>
-      <c r="CS25" s="4">
+      <c r="CS25" s="3">
         <f t="shared" si="19"/>
         <v>2178.7352850327243</v>
       </c>
-      <c r="CT25" s="4">
+      <c r="CT25" s="3">
         <f t="shared" si="19"/>
         <v>2200.5226378830516</v>
       </c>
-      <c r="CU25" s="4">
+      <c r="CU25" s="3">
         <f t="shared" si="19"/>
         <v>2222.5278642618823</v>
       </c>
-      <c r="CV25" s="4">
+      <c r="CV25" s="3">
         <f t="shared" si="19"/>
         <v>2244.7531429045011</v>
       </c>
-      <c r="CW25" s="4">
+      <c r="CW25" s="3">
         <f t="shared" si="19"/>
         <v>2267.200674333546</v>
       </c>
-      <c r="CX25" s="4">
+      <c r="CX25" s="3">
         <f t="shared" si="19"/>
         <v>2289.8726810768812</v>
       </c>
-      <c r="CY25" s="4">
+      <c r="CY25" s="3">
         <f t="shared" si="19"/>
         <v>2312.7714078876502</v>
       </c>
-      <c r="CZ25" s="4">
+      <c r="CZ25" s="3">
         <f t="shared" si="19"/>
         <v>2335.8991219665268</v>
       </c>
-      <c r="DA25" s="4">
+      <c r="DA25" s="3">
         <f t="shared" si="19"/>
         <v>2359.2581131861921</v>
       </c>
-      <c r="DB25" s="4">
+      <c r="DB25" s="3">
         <f t="shared" si="19"/>
         <v>2382.8506943180541</v>
       </c>
-      <c r="DC25" s="4">
+      <c r="DC25" s="3">
         <f t="shared" si="19"/>
         <v>2406.6792012612345</v>
       </c>
-      <c r="DD25" s="4">
+      <c r="DD25" s="3">
         <f t="shared" si="19"/>
         <v>2430.745993273847</v>
       </c>
-      <c r="DE25" s="4">
+      <c r="DE25" s="3">
         <f t="shared" si="19"/>
         <v>2455.0534532065853</v>
       </c>
-      <c r="DF25" s="4">
+      <c r="DF25" s="3">
         <f t="shared" si="19"/>
         <v>2479.6039877386511</v>
       </c>
-      <c r="DG25" s="4">
+      <c r="DG25" s="3">
         <f t="shared" si="19"/>
         <v>2504.4000276160377</v>
       </c>
-      <c r="DH25" s="4">
+      <c r="DH25" s="3">
         <f t="shared" si="19"/>
         <v>2529.4440278921979</v>
       </c>
-      <c r="DI25" s="4">
+      <c r="DI25" s="3">
         <f t="shared" si="19"/>
         <v>2554.7384681711201</v>
       </c>
-      <c r="DJ25" s="4">
+      <c r="DJ25" s="3">
         <f t="shared" si="19"/>
         <v>2580.2858528528313</v>
       </c>
-      <c r="DK25" s="4">
+      <c r="DK25" s="3">
         <f t="shared" si="19"/>
         <v>2606.0887113813596</v>
       </c>
-      <c r="DL25" s="4">
+      <c r="DL25" s="3">
         <f t="shared" si="19"/>
         <v>2632.1495984951734</v>
       </c>
-      <c r="DM25" s="4">
+      <c r="DM25" s="3">
         <f t="shared" si="19"/>
         <v>2658.4710944801254</v>
       </c>
-      <c r="DN25" s="4">
+      <c r="DN25" s="3">
         <f t="shared" si="19"/>
         <v>2685.0558054249268</v>
       </c>
-      <c r="DO25" s="4">
+      <c r="DO25" s="3">
         <f t="shared" si="19"/>
         <v>2711.906363479176</v>
       </c>
-      <c r="DP25" s="4">
+      <c r="DP25" s="3">
         <f t="shared" si="19"/>
         <v>2739.0254271139679</v>
       </c>
-      <c r="DQ25" s="4">
+      <c r="DQ25" s="3">
         <f t="shared" si="19"/>
         <v>2766.4156813851077</v>
       </c>
-      <c r="DR25" s="4">
+      <c r="DR25" s="3">
         <f t="shared" si="19"/>
         <v>2794.0798381989589</v>
       </c>
-      <c r="DS25" s="4">
+      <c r="DS25" s="3">
         <f t="shared" si="19"/>
         <v>2822.0206365809486</v>
       </c>
-      <c r="DT25" s="4">
+      <c r="DT25" s="3">
         <f t="shared" si="19"/>
         <v>2850.2408429467582</v>
       </c>
-      <c r="DU25" s="4">
+      <c r="DU25" s="3">
         <f t="shared" si="19"/>
         <v>2878.743251376226</v>
       </c>
-      <c r="DV25" s="4">
+      <c r="DV25" s="3">
         <f t="shared" si="19"/>
         <v>2907.5306838899883</v>
       </c>
-      <c r="DW25" s="4">
+      <c r="DW25" s="3">
         <f t="shared" si="19"/>
         <v>2936.6059907288882</v>
       </c>
-      <c r="DX25" s="4">
+      <c r="DX25" s="3">
         <f t="shared" si="19"/>
         <v>2965.9720506361773</v>
       </c>
-      <c r="DY25" s="4">
+      <c r="DY25" s="3">
         <f t="shared" si="19"/>
         <v>2995.631771142539</v>
       </c>
-      <c r="DZ25" s="4">
+      <c r="DZ25" s="3">
         <f t="shared" si="19"/>
         <v>3025.5880888539646</v>
       </c>
-      <c r="EA25" s="4">
+      <c r="EA25" s="3">
         <f t="shared" si="19"/>
         <v>3055.8439697425042</v>
       </c>
-      <c r="EB25" s="4">
+      <c r="EB25" s="3">
         <f t="shared" si="19"/>
         <v>3086.4024094399292</v>
       </c>
-      <c r="EC25" s="4">
+      <c r="EC25" s="3">
         <f t="shared" si="19"/>
         <v>3117.2664335343284</v>
       </c>
-      <c r="ED25" s="4">
+      <c r="ED25" s="3">
         <f t="shared" si="19"/>
         <v>3148.4390978696715</v>
       </c>
-      <c r="EE25" s="4">
+      <c r="EE25" s="3">
         <f t="shared" si="19"/>
         <v>3179.9234888483684</v>
       </c>
-      <c r="EF25" s="4">
+      <c r="EF25" s="3">
         <f t="shared" si="19"/>
         <v>3211.722723736852</v>
       </c>
-      <c r="EG25" s="4">
+      <c r="EG25" s="3">
         <f t="shared" si="19"/>
         <v>3243.8399509742208</v>
       </c>
-      <c r="EH25" s="4">
+      <c r="EH25" s="3">
         <f t="shared" si="19"/>
         <v>3276.2783504839631</v>
       </c>
-      <c r="EI25" s="4">
+      <c r="EI25" s="3">
         <f t="shared" si="19"/>
         <v>3309.0411339888028</v>
       </c>
-      <c r="EJ25" s="4">
+      <c r="EJ25" s="3">
         <f t="shared" si="19"/>
         <v>3342.1315453286907</v>
       </c>
-      <c r="EK25" s="4">
+      <c r="EK25" s="3">
         <f t="shared" si="19"/>
         <v>3375.5528607819774</v>
       </c>
-      <c r="EL25" s="4">
+      <c r="EL25" s="3">
         <f t="shared" si="19"/>
         <v>3409.3083893897974</v>
       </c>
     </row>
-    <row r="26" spans="1:142" x14ac:dyDescent="0.25">
-      <c r="G26" s="3" t="e">
+    <row r="26" spans="1:142" x14ac:dyDescent="0.2">
+      <c r="G26" s="5" t="e">
         <f>G25/G13</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H26" s="3">
+      <c r="H26" s="5">
         <f>H25/H13</f>
         <v>8.6740639722290869</v>
       </c>
-      <c r="I26" s="3">
+      <c r="I26" s="5">
         <f>I25/I13</f>
         <v>2.8863886978262507</v>
       </c>
-      <c r="J26" s="3">
+      <c r="J26" s="5">
         <f>J25/J13</f>
         <v>2.89</v>
       </c>
-      <c r="K26" s="3">
+      <c r="K26" s="5">
         <f t="shared" ref="K26:N26" si="20">K25/K13</f>
         <v>2.89</v>
       </c>
-      <c r="L26" s="3">
+      <c r="L26" s="5">
         <f t="shared" si="20"/>
         <v>2.89</v>
       </c>
-      <c r="M26" s="3">
+      <c r="M26" s="5">
         <f t="shared" si="20"/>
         <v>2.89</v>
       </c>
-      <c r="N26" s="3">
+      <c r="N26" s="5">
         <f t="shared" si="20"/>
         <v>2.89</v>
       </c>
     </row>
-    <row r="27" spans="1:142" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:142" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>42</v>
       </c>
@@ -2316,7 +2335,7 @@
         <v>1937.7509957893219</v>
       </c>
     </row>
-    <row r="29" spans="1:142" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:142" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>4</v>
       </c>
@@ -2325,7 +2344,7 @@
         <v>877.65</v>
       </c>
     </row>
-    <row r="31" spans="1:142" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:142" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>5</v>
       </c>
@@ -2333,7 +2352,7 @@
         <v>54.6</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>7</v>
       </c>
@@ -2341,7 +2360,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>8</v>
       </c>
@@ -2349,31 +2368,31 @@
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="O43" s="3"/>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O42" s="5"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O43" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
